--- a/output.xlsx
+++ b/output.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Item #</t>
   </si>
   <si>
     <t>Item Description</t>
+  </si>
+  <si>
+    <t>Recieved date</t>
   </si>
 </sst>
 </file>
@@ -206,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -610,7 +619,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -634,16 +643,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13">
@@ -652,103 +661,109 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1290,127 +1305,169 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="133.333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="42.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24"/>
       <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25"/>
       <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26"/>
       <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
